--- a/data/trans_orig/IP25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAFF1BF8-3B19-4D8F-A2FE-8271B0E652B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{459F5CC4-96C7-4D71-9890-4A87DFC99D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{FC60E48D-6FFF-4E3A-9048-FFD4FFCED672}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{017452D3-B460-4479-B5DF-BA41BAA8ADF9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="268">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -71,6 +71,69 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
@@ -86,72 +149,126 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
     <t>0,45%</t>
   </si>
   <si>
@@ -161,118 +278,58 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -284,60 +341,6 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
@@ -395,6 +398,108 @@
     <t>76,36%</t>
   </si>
   <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
@@ -404,108 +509,6 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
     <t>8,75%</t>
   </si>
   <si>
@@ -563,61 +566,166 @@
     <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -626,111 +734,6 @@
     <t>0,51%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
     <t>8,68%</t>
   </si>
   <si>
@@ -788,6 +791,9 @@
     <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>0,96%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
@@ -797,7 +803,31 @@
     <t>99,55%</t>
   </si>
   <si>
-    <t>0,96%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -809,37 +839,10 @@
     <t>99,8%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
+    <t>0,1%</t>
   </si>
   <si>
     <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA91CAF-FE18-40BA-A3B9-0A07060DE9CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CCEBE-6E8A-478F-AFA1-715A8EE8AC77}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1345,155 +1348,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>70795</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>57310</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>128106</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="D5" s="7">
-        <v>70795</v>
+        <v>152366</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>88</v>
+        <v>231</v>
       </c>
       <c r="I5" s="7">
-        <v>57310</v>
+        <v>152175</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>194</v>
+        <v>459</v>
       </c>
       <c r="N5" s="7">
-        <v>128106</v>
+        <v>304540</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>152366</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>152175</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>459</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>304540</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1508,13 +1511,13 @@
         <v>223161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>319</v>
@@ -1523,13 +1526,13 @@
         <v>209485</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>653</v>
@@ -1538,168 +1541,168 @@
         <v>432646</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>9425</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>11192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="D9" s="7">
-        <v>9851</v>
+        <v>208616</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>10</v>
+        <v>301</v>
       </c>
       <c r="I9" s="7">
-        <v>6750</v>
+        <v>203456</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>25</v>
+        <v>617</v>
       </c>
       <c r="N9" s="7">
-        <v>16601</v>
+        <v>412071</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>271647</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>383</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>258120</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>529767</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1708,204 +1711,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D11" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>393</v>
+        <v>304</v>
       </c>
       <c r="I11" s="7">
-        <v>264870</v>
+        <v>205222</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>815</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>546368</v>
+        <v>423263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="5">
-        <v>994</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>9851</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>6750</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>16601</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>407</v>
       </c>
       <c r="D13" s="7">
-        <v>9425</v>
+        <v>271647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>383</v>
       </c>
       <c r="I13" s="7">
-        <v>1766</v>
+        <v>258120</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>790</v>
       </c>
       <c r="N13" s="7">
-        <v>11192</v>
+        <v>529767</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>208616</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>203456</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>412071</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,204 +1917,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D15" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="I15" s="7">
-        <v>205222</v>
+        <v>264870</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>634</v>
+        <v>815</v>
       </c>
       <c r="N15" s="7">
-        <v>423263</v>
+        <v>546368</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>90071</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>65827</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>155898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>135</v>
+        <v>951</v>
       </c>
       <c r="D17" s="7">
-        <v>90071</v>
+        <v>632629</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H17" s="7">
-        <v>101</v>
+        <v>915</v>
       </c>
       <c r="I17" s="7">
-        <v>65827</v>
+        <v>613750</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
-        <v>236</v>
+        <v>1866</v>
       </c>
       <c r="N17" s="7">
-        <v>155898</v>
+        <v>1246379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>951</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>632629</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
-        <v>915</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>613750</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>1866</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>1246379</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2129,13 @@
         <v>722700</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1016</v>
@@ -2141,13 +2144,13 @@
         <v>679577</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2102</v>
@@ -2156,13 +2159,13 @@
         <v>1402277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3F85A46-B366-4240-B546-09E3FB228638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4CB39E-67F1-4F13-B9E7-A9A968B40BA7}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2198,7 +2201,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2295,155 +2298,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>57567</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>66707</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>124274</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="D5" s="7">
-        <v>57567</v>
+        <v>178572</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
-        <v>99</v>
+        <v>239</v>
       </c>
       <c r="I5" s="7">
-        <v>66707</v>
+        <v>157860</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
-        <v>180</v>
+        <v>492</v>
       </c>
       <c r="N5" s="7">
-        <v>124274</v>
+        <v>336431</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>178572</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>157860</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>336431</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2458,13 +2461,13 @@
         <v>236139</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>338</v>
@@ -2473,13 +2476,13 @@
         <v>224567</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>672</v>
@@ -2488,168 +2491,168 @@
         <v>460705</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>5934</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" s="7">
+        <v>12</v>
+      </c>
+      <c r="N8" s="7">
+        <v>7957</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>8</v>
+        <v>332</v>
       </c>
       <c r="D9" s="7">
-        <v>6040</v>
+        <v>239967</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H9" s="7">
-        <v>7</v>
+        <v>312</v>
       </c>
       <c r="I9" s="7">
-        <v>4927</v>
+        <v>223538</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>644</v>
       </c>
       <c r="N9" s="7">
-        <v>10967</v>
+        <v>463506</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>266312</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="H10" s="7">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>251484</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>134</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="M10" s="7">
-        <v>751</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>517796</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,204 +2661,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="D11" s="7">
-        <v>272352</v>
+        <v>241991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I11" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>766</v>
+        <v>656</v>
       </c>
       <c r="N11" s="7">
-        <v>528763</v>
+        <v>471463</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="5">
-        <v>994</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>6040</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>136</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>4927</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>10967</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>393</v>
       </c>
       <c r="D13" s="7">
-        <v>2024</v>
+        <v>266312</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="I13" s="7">
-        <v>5934</v>
+        <v>251484</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>751</v>
       </c>
       <c r="N13" s="7">
-        <v>7957</v>
+        <v>517796</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>239967</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H14" s="7">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>223538</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M14" s="7">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>463506</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2864,204 +2867,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="D15" s="7">
-        <v>241991</v>
+        <v>272352</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I15" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>656</v>
+        <v>766</v>
       </c>
       <c r="N15" s="7">
-        <v>471463</v>
+        <v>528763</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>65630</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>77569</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>143198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>92</v>
+        <v>978</v>
       </c>
       <c r="D17" s="7">
-        <v>65630</v>
+        <v>684852</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
-        <v>115</v>
+        <v>909</v>
       </c>
       <c r="I17" s="7">
-        <v>77569</v>
+        <v>632881</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
-        <v>207</v>
+        <v>1887</v>
       </c>
       <c r="N17" s="7">
-        <v>143198</v>
+        <v>1317733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>684852</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>164</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
-        <v>909</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>632881</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>1887</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>1317733</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>170</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3079,13 @@
         <v>750482</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1024</v>
@@ -3091,13 +3094,13 @@
         <v>710450</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2094</v>
@@ -3106,13 +3109,13 @@
         <v>1460931</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +3134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC715DD-AC39-4FE4-8EE0-EF1CAF7D0FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8650841-A5A7-4881-AC06-BD3A2B604E57}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3148,7 +3151,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3245,155 +3248,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>50004</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>60455</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>110459</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="D5" s="7">
-        <v>50004</v>
+        <v>163159</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="H5" s="7">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="I5" s="7">
-        <v>60455</v>
+        <v>140813</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="M5" s="7">
-        <v>170</v>
+        <v>477</v>
       </c>
       <c r="N5" s="7">
-        <v>110459</v>
+        <v>303972</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>163159</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>140813</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>188</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M6" s="7">
-        <v>477</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>303972</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>191</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,13 +3411,13 @@
         <v>213163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>326</v>
@@ -3423,13 +3426,13 @@
         <v>201268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>647</v>
@@ -3438,168 +3441,168 @@
         <v>414431</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>6051</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>5965</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>12016</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="D9" s="7">
-        <v>8576</v>
+        <v>244001</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="I9" s="7">
-        <v>5219</v>
+        <v>229368</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="M9" s="7">
-        <v>20</v>
+        <v>706</v>
       </c>
       <c r="N9" s="7">
-        <v>13794</v>
+        <v>473369</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>273053</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H10" s="7">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>262551</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
-        <v>736</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>535605</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>209</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,204 +3611,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D11" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I11" s="7">
-        <v>267770</v>
+        <v>235333</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>756</v>
+        <v>723</v>
       </c>
       <c r="N11" s="7">
-        <v>549399</v>
+        <v>485385</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="5">
-        <v>994</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>8576</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>5219</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>13794</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>218</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>370</v>
       </c>
       <c r="D13" s="7">
-        <v>6051</v>
+        <v>273053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
-        <v>8</v>
+        <v>366</v>
       </c>
       <c r="I13" s="7">
-        <v>5965</v>
+        <v>262551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
-        <v>17</v>
+        <v>736</v>
       </c>
       <c r="N13" s="7">
-        <v>12016</v>
+        <v>535605</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>244001</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
-        <v>352</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>229368</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
-        <v>706</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>473369</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,204 +3817,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D15" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="I15" s="7">
-        <v>235333</v>
+        <v>267770</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>723</v>
+        <v>756</v>
       </c>
       <c r="N15" s="7">
-        <v>485385</v>
+        <v>549399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>64630</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>71639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>136269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>94</v>
+        <v>971</v>
       </c>
       <c r="D17" s="7">
-        <v>64630</v>
+        <v>680214</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
-        <v>113</v>
+        <v>948</v>
       </c>
       <c r="I17" s="7">
-        <v>71639</v>
+        <v>632732</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
-        <v>207</v>
+        <v>1919</v>
       </c>
       <c r="N17" s="7">
-        <v>136269</v>
+        <v>1312946</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>971</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>680214</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>241</v>
+        <v>97</v>
       </c>
       <c r="H18" s="7">
-        <v>948</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>632732</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>243</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="M18" s="7">
-        <v>1919</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>1312946</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4029,13 @@
         <v>744844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>1061</v>
@@ -4041,13 +4044,13 @@
         <v>704371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>2126</v>
@@ -4056,13 +4059,13 @@
         <v>1449215</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4081,7 +4084,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB79533-D305-4398-9726-42B4F899AAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18F480F-C7EA-4701-A191-9538B6446660}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4098,7 +4101,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4195,59 +4198,59 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>994</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>117938</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>103803</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="M4" s="7">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>221741</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4256,13 +4259,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4271,13 +4274,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4286,64 +4289,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>117938</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>103803</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>221741</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4361,13 @@
         <v>117938</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
         <v>199</v>
@@ -4373,13 +4376,13 @@
         <v>103803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
         <v>426</v>
@@ -4388,72 +4391,72 @@
         <v>221741</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>994</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>402710</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>351641</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>754351</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>35</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4462,94 +4465,94 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>205055</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>198267</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>11</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>403323</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>11</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,108 +4561,108 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>463</v>
+        <v>281</v>
       </c>
       <c r="I11" s="7">
-        <v>351641</v>
+        <v>198267</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>942</v>
+        <v>552</v>
       </c>
       <c r="N11" s="7">
-        <v>754351</v>
+        <v>403323</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="5">
-        <v>994</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>35</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4668,94 +4671,94 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>402710</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>351641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>754351</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,108 +4767,108 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D15" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>281</v>
+        <v>463</v>
       </c>
       <c r="I15" s="7">
-        <v>198267</v>
+        <v>351641</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>552</v>
+        <v>942</v>
       </c>
       <c r="N15" s="7">
-        <v>403323</v>
+        <v>754351</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="5">
-        <v>994</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>255</v>
+        <v>32</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>35</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4874,13 +4877,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4889,13 +4892,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4904,10 +4907,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>266</v>
@@ -4916,52 +4919,52 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>977</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>725704</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>653712</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>1379416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>10</v>
+        <v>251</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>266</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +4979,13 @@
         <v>725704</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
         <v>943</v>
@@ -4991,13 +4994,13 @@
         <v>653712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
         <v>1920</v>
@@ -5006,13 +5009,13 @@
         <v>1379416</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{459F5CC4-96C7-4D71-9890-4A87DFC99D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE664E26-860D-4455-87BA-06E3F5E6ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{017452D3-B460-4479-B5DF-BA41BAA8ADF9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1FF0EC5-DE81-42E3-9733-B7937164F120}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="328">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -68,781 +68,961 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>994.0</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>994.0</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
   </si>
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>0,96%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
     <t>0,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
   </si>
 </sst>
 </file>
@@ -853,7 +1033,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -949,39 +1129,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1033,7 +1213,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1144,13 +1324,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1159,6 +1332,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1223,19 +1403,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965CCEBE-6E8A-478F-AFA1-715A8EE8AC77}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D31E4F9-E4DB-4F1A-863C-4FBC7C67BDAE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1352,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>70795</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1367,133 +1567,133 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>57310</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>194</v>
-      </c>
-      <c r="N4" s="7">
-        <v>128106</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>84</v>
+      </c>
+      <c r="D5" s="7">
+        <v>55823</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>82</v>
+      </c>
+      <c r="I5" s="7">
+        <v>53743</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>228</v>
-      </c>
-      <c r="D5" s="7">
-        <v>152366</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>166</v>
+      </c>
+      <c r="N5" s="7">
+        <v>109566</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>231</v>
-      </c>
-      <c r="I5" s="7">
-        <v>152175</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>459</v>
-      </c>
-      <c r="N5" s="7">
-        <v>304540</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>98</v>
+      </c>
+      <c r="D6" s="7">
+        <v>65557</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>79</v>
+      </c>
+      <c r="I6" s="7">
+        <v>51717</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>177</v>
+      </c>
+      <c r="N6" s="7">
+        <v>117274</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -1505,10 +1705,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D7" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1520,10 +1720,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>161</v>
       </c>
       <c r="I7" s="7">
-        <v>209485</v>
+        <v>105460</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1535,10 +1735,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>653</v>
+        <v>343</v>
       </c>
       <c r="N7" s="7">
-        <v>432646</v>
+        <v>226840</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1558,148 +1758,148 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>9425</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1766</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="7">
-        <v>17</v>
-      </c>
-      <c r="N8" s="7">
-        <v>11192</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="D9" s="7">
-        <v>208616</v>
+        <v>242468</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="7">
+        <v>368</v>
+      </c>
+      <c r="I9" s="7">
+        <v>246487</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M9" s="7">
+        <v>733</v>
+      </c>
+      <c r="N9" s="7">
+        <v>488955</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="H9" s="7">
-        <v>301</v>
-      </c>
-      <c r="I9" s="7">
-        <v>203456</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" s="7">
-        <v>617</v>
-      </c>
-      <c r="N9" s="7">
-        <v>412071</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>11288</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7">
+        <v>6718</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
+        <v>28</v>
+      </c>
+      <c r="N10" s="7">
+        <v>18006</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -1711,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -1726,10 +1926,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I11" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -1741,10 +1941,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N11" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1764,151 +1964,151 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>9851</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H12" s="7">
-        <v>10</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6750</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="7">
-        <v>25</v>
-      </c>
-      <c r="N12" s="7">
-        <v>16601</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>407</v>
+        <v>202</v>
       </c>
       <c r="D13" s="7">
-        <v>271647</v>
+        <v>134689</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="7">
+        <v>188</v>
+      </c>
+      <c r="I13" s="7">
+        <v>125462</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>390</v>
+      </c>
+      <c r="N13" s="7">
+        <v>260152</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="7">
-        <v>383</v>
-      </c>
-      <c r="I13" s="7">
-        <v>258120</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="7">
-        <v>790</v>
-      </c>
-      <c r="N13" s="7">
-        <v>529767</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>6826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2086</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>13</v>
+      </c>
+      <c r="N14" s="7">
+        <v>8911</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,10 +2117,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D15" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -1932,10 +2132,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>264870</v>
+        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -1947,10 +2147,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>815</v>
+        <v>403</v>
       </c>
       <c r="N15" s="7">
-        <v>546368</v>
+        <v>269063</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -1964,157 +2164,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>90071</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>65827</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="7">
-        <v>236</v>
-      </c>
-      <c r="N16" s="7">
-        <v>155898</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>951</v>
+        <v>300</v>
       </c>
       <c r="D17" s="7">
-        <v>632629</v>
+        <v>199648</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
+        <v>277</v>
+      </c>
+      <c r="I17" s="7">
+        <v>188057</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>577</v>
+      </c>
+      <c r="N17" s="7">
+        <v>387706</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="7">
-        <v>915</v>
-      </c>
-      <c r="I17" s="7">
-        <v>613750</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1866</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1246379</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>6401</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="7">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7">
+        <v>5307</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>98</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>11707</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2123,55 +2323,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>310</v>
+      </c>
+      <c r="D19" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>285</v>
+      </c>
+      <c r="I19" s="7">
+        <v>193364</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>595</v>
+      </c>
+      <c r="N19" s="7">
+        <v>399413</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>951</v>
+      </c>
+      <c r="D21" s="7">
+        <v>632629</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="7">
+        <v>915</v>
+      </c>
+      <c r="I21" s="7">
+        <v>613750</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1866</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1246379</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>135</v>
+      </c>
+      <c r="D22" s="7">
+        <v>90071</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="7">
+        <v>101</v>
+      </c>
+      <c r="I22" s="7">
+        <v>65827</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M22" s="7">
+        <v>236</v>
+      </c>
+      <c r="N22" s="7">
+        <v>155898</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1086</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>722700</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1016</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>679577</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>2102</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1402277</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2184,8 +2596,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B4CB39E-67F1-4F13-B9E7-A9A968B40BA7}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF2379C-7C71-4E3C-AC4A-BC3D9100FD67}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2201,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2302,151 +2714,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>57567</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>66707</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>124274</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>253</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7">
-        <v>178572</v>
+        <v>87574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="I5" s="7">
-        <v>157860</v>
+        <v>82923</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
-        <v>492</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>336431</v>
+        <v>170497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>55391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>62896</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>118287</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,10 +2867,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>334</v>
+        <v>203</v>
       </c>
       <c r="D7" s="7">
-        <v>236139</v>
+        <v>142965</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2470,10 +2882,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>338</v>
+        <v>218</v>
       </c>
       <c r="I7" s="7">
-        <v>224567</v>
+        <v>145819</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2485,10 +2897,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>672</v>
+        <v>421</v>
       </c>
       <c r="N7" s="7">
-        <v>460705</v>
+        <v>288784</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2508,151 +2920,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5934</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>7957</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="D9" s="7">
-        <v>239967</v>
+        <v>266142</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="I9" s="7">
-        <v>223538</v>
+        <v>228551</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
-        <v>644</v>
+        <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>463506</v>
+        <v>494693</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>2849</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>7699</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>10548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,10 +3073,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D11" s="7">
-        <v>241991</v>
+        <v>268991</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2676,10 +3088,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I11" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2691,10 +3103,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="N11" s="7">
-        <v>471463</v>
+        <v>505241</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2714,151 +3126,151 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>6040</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>4927</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>10967</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>393</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>266312</v>
+        <v>155601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
-        <v>358</v>
+        <v>219</v>
       </c>
       <c r="I13" s="7">
-        <v>251484</v>
+        <v>154251</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
-        <v>751</v>
+        <v>443</v>
       </c>
       <c r="N13" s="7">
-        <v>517796</v>
+        <v>309852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2970</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>2792</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>5762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,10 +3279,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="D15" s="7">
-        <v>272352</v>
+        <v>158571</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2882,10 +3294,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2897,10 +3309,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>528763</v>
+        <v>315614</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2914,157 +3326,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>65630</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>77569</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>143198</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>978</v>
+        <v>259</v>
       </c>
       <c r="D17" s="7">
-        <v>684852</v>
+        <v>175535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>909</v>
+        <v>237</v>
       </c>
       <c r="I17" s="7">
-        <v>632881</v>
+        <v>167156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>1887</v>
+        <v>496</v>
       </c>
       <c r="N17" s="7">
-        <v>1317733</v>
+        <v>342691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>4420</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>193</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>4181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>8601</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,55 +3485,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>265</v>
+      </c>
+      <c r="D19" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>243</v>
+      </c>
+      <c r="I19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>508</v>
+      </c>
+      <c r="N19" s="7">
+        <v>351292</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>978</v>
+      </c>
+      <c r="D21" s="7">
+        <v>684852</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="7">
+        <v>909</v>
+      </c>
+      <c r="I21" s="7">
+        <v>632881</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1887</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1317733</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>92</v>
+      </c>
+      <c r="D22" s="7">
+        <v>65630</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="7">
+        <v>115</v>
+      </c>
+      <c r="I22" s="7">
+        <v>77569</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" s="7">
+        <v>207</v>
+      </c>
+      <c r="N22" s="7">
+        <v>143198</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1070</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>750482</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1024</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>710450</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>2094</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1460931</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3134,8 +3758,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8650841-A5A7-4881-AC06-BD3A2B604E57}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93212E05-532B-43FC-84B4-76F8A659EB8D}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3151,7 +3775,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3252,151 +3876,151 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>50004</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>60455</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>110459</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>183</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c r="D5" s="7">
-        <v>163159</v>
+        <v>77541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="I5" s="7">
-        <v>140813</v>
+        <v>73553</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
-        <v>477</v>
+        <v>237</v>
       </c>
       <c r="N5" s="7">
-        <v>303972</v>
+        <v>151094</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>190</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>46623</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>231</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>58101</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>233</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>104724</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>58</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,10 +4029,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -3420,10 +4044,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3435,10 +4059,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N7" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3458,151 +4082,151 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6051</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>5965</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>12016</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D9" s="7">
-        <v>244001</v>
+        <v>249913</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>203</v>
+        <v>240</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="H9" s="7">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="I9" s="7">
-        <v>229368</v>
+        <v>205829</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="M9" s="7">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="N9" s="7">
-        <v>473369</v>
+        <v>455742</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>8148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>248</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>4688</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>250</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>12836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,10 +4235,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D11" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3626,10 +4250,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I11" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3641,10 +4265,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N11" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3664,151 +4288,151 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>8576</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>5219</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>215</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
       <c r="M12" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>13794</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="D13" s="7">
-        <v>273053</v>
+        <v>186207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="H13" s="7">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="I13" s="7">
-        <v>262551</v>
+        <v>183221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="M13" s="7">
-        <v>736</v>
+        <v>524</v>
       </c>
       <c r="N13" s="7">
-        <v>535605</v>
+        <v>369429</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>5678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>8042</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,10 +4441,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D15" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -3832,10 +4456,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>375</v>
+        <v>272</v>
       </c>
       <c r="I15" s="7">
-        <v>267770</v>
+        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3847,10 +4471,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="N15" s="7">
-        <v>549399</v>
+        <v>377471</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -3864,157 +4488,157 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>64630</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>71639</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="M16" s="7">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>136269</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>971</v>
+        <v>225</v>
       </c>
       <c r="D17" s="7">
-        <v>680214</v>
+        <v>166554</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" s="7">
         <v>240</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H17" s="7">
-        <v>948</v>
-      </c>
       <c r="I17" s="7">
-        <v>632732</v>
+        <v>170129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>1919</v>
+        <v>465</v>
       </c>
       <c r="N17" s="7">
-        <v>1312946</v>
+        <v>336681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>7494</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>97</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>3172</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>287</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>10667</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>157</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>99</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,55 +4647,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>235</v>
+      </c>
+      <c r="D19" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>246</v>
+      </c>
+      <c r="I19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>481</v>
+      </c>
+      <c r="N19" s="7">
+        <v>347348</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>971</v>
+      </c>
+      <c r="D21" s="7">
+        <v>680214</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H21" s="7">
+        <v>948</v>
+      </c>
+      <c r="I21" s="7">
+        <v>632732</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1919</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1312946</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>94</v>
+      </c>
+      <c r="D22" s="7">
+        <v>64630</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H22" s="7">
+        <v>113</v>
+      </c>
+      <c r="I22" s="7">
+        <v>71639</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="M22" s="7">
+        <v>207</v>
+      </c>
+      <c r="N22" s="7">
+        <v>136269</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
         <v>1065</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D23" s="7">
         <v>744844</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1061</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I23" s="7">
         <v>704371</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
         <v>2126</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N23" s="7">
         <v>1449215</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4084,8 +4920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18F480F-C7EA-4701-A191-9538B6446660}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E81F433-1CAE-4878-98B8-B0A6A207509D}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4101,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4202,55 +5038,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>58503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>57369</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>32</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>115871</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>32</v>
+        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -4259,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4274,13 +5110,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4289,64 +5125,64 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>76</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>311</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,10 +5191,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D7" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -4370,10 +5206,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I7" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4385,10 +5221,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4408,55 +5244,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>175299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>158765</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>534</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>334063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -4465,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4480,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>255</v>
+        <v>316</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4495,64 +5331,64 @@
         <v>0</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>205055</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>198267</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>403323</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>36</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,10 +5397,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D11" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -4576,10 +5412,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I11" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4591,10 +5427,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -4614,55 +5450,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>317</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>176945</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>379424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>0</v>
@@ -4671,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4686,13 +5522,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4701,64 +5537,64 @@
         <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>402710</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="H14" s="7">
-        <v>463</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>351641</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>320</v>
       </c>
       <c r="M14" s="7">
-        <v>942</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>754351</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D15" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -4782,10 +5618,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>463</v>
+        <v>234</v>
       </c>
       <c r="I15" s="7">
-        <v>351641</v>
+        <v>176945</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4797,10 +5633,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>942</v>
+        <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>754351</v>
+        <v>379424</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -4814,61 +5650,61 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>289424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>260633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>550057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>31</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -4877,13 +5713,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4892,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>15</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -4907,64 +5743,64 @@
         <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>725704</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>943</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>653712</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>1379416</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>36</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,55 +5809,267 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>342</v>
+      </c>
+      <c r="D19" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
+        <v>342</v>
+      </c>
+      <c r="I19" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M19" s="7">
+        <v>684</v>
+      </c>
+      <c r="N19" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="7">
         <v>977</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>725704</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="E20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="7">
         <v>943</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I20" s="7">
         <v>653712</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="7">
+      <c r="J20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M20" s="7">
         <v>1920</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N20" s="7">
         <v>1379416</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>36</v>
+      <c r="O20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>977</v>
+      </c>
+      <c r="D23" s="7">
+        <v>725704</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
+        <v>943</v>
+      </c>
+      <c r="I23" s="7">
+        <v>653712</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1920</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1379416</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE664E26-860D-4455-87BA-06E3F5E6ED89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB10BB38-BAB0-45E5-A784-B451C0DE9F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A1FF0EC5-DE81-42E3-9733-B7937164F120}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{561A912D-E660-42C6-BA11-000593CE5324}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="326">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>45,99%</t>
   </si>
   <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
   </si>
   <si>
     <t>50,96%</t>
   </si>
   <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
   </si>
   <si>
     <t>48,3%</t>
   </si>
   <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,28 +125,28 @@
     <t>54,01%</t>
   </si>
   <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>49,04%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
   </si>
   <si>
     <t>51,7%</t>
   </si>
   <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>95,55%</t>
   </si>
   <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>97,35%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -233,16 +233,13 @@
     <t>95,18%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>91,86%</t>
   </si>
   <si>
     <t>98,36%</t>
   </si>
   <si>
-    <t>95,68%</t>
+    <t>95,58%</t>
   </si>
   <si>
     <t>99,5%</t>
@@ -251,715 +248,712 @@
     <t>96,69%</t>
   </si>
   <si>
-    <t>94,58%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>4,9%</t>
   </si>
   <si>
     <t>91,32%</t>
   </si>
   <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>90,6%</t>
   </si>
   <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
   </si>
   <si>
     <t>9,4%</t>
   </si>
   <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
   </si>
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1434,7 +1428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D31E4F9-E4DB-4F1A-863C-4FBC7C67BDAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AB0CD0-53A7-4B07-B566-797D112AF73E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2027,7 +2021,7 @@
         <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>188</v>
@@ -2036,13 +2030,13 @@
         <v>125462</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>390</v>
@@ -2051,13 +2045,13 @@
         <v>260152</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2066,13 @@
         <v>6826</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2087,13 +2081,13 @@
         <v>2086</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -2102,13 +2096,13 @@
         <v>8911</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,7 +2158,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2182,37 +2176,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,13 +2221,13 @@
         <v>199648</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="7">
         <v>277</v>
@@ -2242,13 +2236,13 @@
         <v>188057</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>577</v>
@@ -2257,13 +2251,13 @@
         <v>387706</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,13 +2272,13 @@
         <v>6401</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -2293,13 +2287,13 @@
         <v>5307</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -2308,13 +2302,13 @@
         <v>11707</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,37 +2382,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,13 +2427,13 @@
         <v>632629</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -2448,13 +2442,13 @@
         <v>613750</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M21" s="7">
         <v>1866</v>
@@ -2463,13 +2457,13 @@
         <v>1246379</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2478,13 @@
         <v>90071</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H22" s="7">
         <v>101</v>
@@ -2499,13 +2493,13 @@
         <v>65827</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>236</v>
@@ -2514,13 +2508,13 @@
         <v>155898</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,7 +2570,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF2379C-7C71-4E3C-AC4A-BC3D9100FD67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0370B7-D19A-47F3-BD54-3A4AD9BCB134}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2613,7 +2607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2726,37 +2720,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2765,13 @@
         <v>87574</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -2786,13 +2780,13 @@
         <v>82923</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>250</v>
@@ -2801,13 +2795,13 @@
         <v>170497</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2816,13 @@
         <v>55391</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H6" s="7">
         <v>93</v>
@@ -2837,13 +2831,13 @@
         <v>62896</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M6" s="7">
         <v>171</v>
@@ -2852,13 +2846,13 @@
         <v>118287</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2971,13 @@
         <v>266142</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H9" s="7">
         <v>328</v>
@@ -2992,13 +2986,13 @@
         <v>228551</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M9" s="7">
         <v>698</v>
@@ -3007,13 +3001,13 @@
         <v>494693</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3022,13 @@
         <v>2849</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -3061,10 +3055,10 @@
         <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,13 +3192,13 @@
         <v>154251</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -3213,13 +3207,13 @@
         <v>309852</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3228,13 @@
         <v>2970</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -3249,13 +3243,13 @@
         <v>2792</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3264,13 +3258,13 @@
         <v>5762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,7 +3320,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3344,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3359,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3374,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3383,13 @@
         <v>175535</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -3404,13 +3398,13 @@
         <v>167156</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M17" s="7">
         <v>496</v>
@@ -3419,13 +3413,13 @@
         <v>342691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3434,13 @@
         <v>4420</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3455,13 +3449,13 @@
         <v>4181</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3470,13 +3464,13 @@
         <v>8601</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,37 +3544,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3589,13 @@
         <v>684852</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H21" s="7">
         <v>909</v>
@@ -3610,13 +3604,13 @@
         <v>632881</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M21" s="7">
         <v>1887</v>
@@ -3625,13 +3619,13 @@
         <v>1317733</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3640,13 @@
         <v>65630</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H22" s="7">
         <v>115</v>
@@ -3661,13 +3655,13 @@
         <v>77569</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -3676,13 +3670,13 @@
         <v>143198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,7 +3732,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3758,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93212E05-532B-43FC-84B4-76F8A659EB8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591F14B2-F113-4780-9DC6-6D7CC0E78803}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3775,7 +3769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,7 +3882,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3903,7 +3897,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3933,13 +3927,13 @@
         <v>77541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>119</v>
@@ -3948,13 +3942,13 @@
         <v>73553</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M5" s="7">
         <v>237</v>
@@ -3963,13 +3957,13 @@
         <v>151094</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +3978,13 @@
         <v>46623</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H6" s="7">
         <v>92</v>
@@ -3999,13 +3993,13 @@
         <v>58101</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M6" s="7">
         <v>161</v>
@@ -4014,13 +4008,13 @@
         <v>104724</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4124,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4133,13 @@
         <v>249913</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H9" s="7">
         <v>325</v>
@@ -4154,13 +4148,13 @@
         <v>205829</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>184</v>
+        <v>242</v>
       </c>
       <c r="M9" s="7">
         <v>693</v>
@@ -4169,13 +4163,13 @@
         <v>455742</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>246</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4184,13 @@
         <v>8148</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4205,13 +4199,13 @@
         <v>4688</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4220,13 +4214,13 @@
         <v>12836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4315,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4330,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4339,13 @@
         <v>186207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H13" s="7">
         <v>264</v>
@@ -4360,13 +4354,13 @@
         <v>183221</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>524</v>
@@ -4375,13 +4369,13 @@
         <v>369429</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4390,13 @@
         <v>2365</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -4411,13 +4405,13 @@
         <v>5678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4426,13 +4420,13 @@
         <v>8042</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,7 +4482,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4506,7 +4500,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4521,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4536,7 +4530,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,13 +4545,13 @@
         <v>166554</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>240</v>
@@ -4566,13 +4560,13 @@
         <v>170129</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
@@ -4581,13 +4575,13 @@
         <v>336681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4596,13 @@
         <v>7494</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -4617,13 +4611,13 @@
         <v>3172</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>286</v>
+        <v>80</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -4632,13 +4626,13 @@
         <v>10667</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>196</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,37 +4706,37 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="7">
-        <v>0</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4751,13 @@
         <v>680214</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>948</v>
@@ -4772,13 +4766,13 @@
         <v>632732</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M21" s="7">
         <v>1919</v>
@@ -4787,13 +4781,13 @@
         <v>1312946</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4802,13 @@
         <v>64630</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H22" s="7">
         <v>113</v>
@@ -4823,13 +4817,13 @@
         <v>71639</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -4838,13 +4832,13 @@
         <v>136269</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,7 +4894,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E81F433-1CAE-4878-98B8-B0A6A207509D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44322A05-467D-4012-BD20-F6153D7EB582}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4937,7 +4931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,10 +5038,10 @@
         <v>58503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -5059,10 +5053,10 @@
         <v>57369</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -5074,10 +5068,10 @@
         <v>115871</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -5101,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5116,7 +5110,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5131,7 +5125,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5167,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5182,7 +5176,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,10 +5244,10 @@
         <v>175299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -5265,10 +5259,10 @@
         <v>158765</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -5280,10 +5274,10 @@
         <v>334063</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -5307,7 +5301,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5322,7 +5316,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5337,7 +5331,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,7 +5352,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5373,7 +5367,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5388,7 +5382,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,10 +5450,10 @@
         <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -5471,10 +5465,10 @@
         <v>176945</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -5486,10 +5480,10 @@
         <v>379424</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -5513,7 +5507,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5528,7 +5522,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5543,7 +5537,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,7 +5558,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5579,7 +5573,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5594,7 +5588,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,7 +5644,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5662,10 +5656,10 @@
         <v>289424</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -5677,10 +5671,10 @@
         <v>260633</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -5692,10 +5686,10 @@
         <v>550057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -5749,7 +5743,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,7 +5794,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,10 +5862,10 @@
         <v>725704</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>36</v>
@@ -5883,10 +5877,10 @@
         <v>653712</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -5898,10 +5892,10 @@
         <v>1379416</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -5925,7 +5919,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5940,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5955,7 +5949,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,7 +5970,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5991,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6006,7 +6000,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,7 +6056,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP25-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB10BB38-BAB0-45E5-A784-B451C0DE9F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B954EB3-710C-4843-BAF1-406C17D6DB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{561A912D-E660-42C6-BA11-000593CE5324}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{2D601569-D9E7-4A0A-827B-E620392FBA2B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="329">
   <si>
     <t>Menores según si ven la televisión todos o casi todos los días en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,73 +80,73 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
     <t>0,56%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
     <t>45,99%</t>
   </si>
   <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
   </si>
   <si>
     <t>48,3%</t>
   </si>
   <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
     <t>54,01%</t>
   </si>
   <si>
-    <t>46,9%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
   </si>
   <si>
     <t>51,7%</t>
   </si>
   <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,841 +155,850 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
     <t>0,5%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
     <t>95,55%</t>
   </si>
   <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
     <t>92,82%</t>
   </si>
   <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>Menores según si ven la televisión todos o casi todos los días en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
+    <t>0,74%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>0,74%</t>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
   </si>
   <si>
     <t>99,6%</t>
@@ -1428,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8AB0CD0-53A7-4B07-B566-797D112AF73E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEA696D-81DA-4249-A588-D91E327694C9}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1597,10 +1606,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>55823</v>
+        <v>53743</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1612,10 +1621,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I5" s="7">
-        <v>53743</v>
+        <v>55823</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1648,10 +1657,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7">
-        <v>65557</v>
+        <v>51717</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1663,10 +1672,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I6" s="7">
-        <v>51717</v>
+        <v>65557</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1699,25 +1708,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>161</v>
+      </c>
+      <c r="D7" s="7">
+        <v>105460</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>182</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>121380</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>161</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105460</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -1803,10 +1812,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D9" s="7">
-        <v>242468</v>
+        <v>246487</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>41</v>
@@ -1818,10 +1827,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I9" s="7">
-        <v>246487</v>
+        <v>242468</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -1854,10 +1863,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>11288</v>
+        <v>6718</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -1869,10 +1878,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>6718</v>
+        <v>11288</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -1905,25 +1914,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>379</v>
+      </c>
+      <c r="D11" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>382</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>253756</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>379</v>
-      </c>
-      <c r="I11" s="7">
-        <v>253205</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2009,10 +2018,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D13" s="7">
-        <v>134689</v>
+        <v>125462</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -2021,22 +2030,22 @@
         <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="I13" s="7">
-        <v>125462</v>
+        <v>134689</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>390</v>
@@ -2045,13 +2054,13 @@
         <v>260152</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,34 +2069,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2086</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>6826</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2086</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -2096,13 +2105,13 @@
         <v>8911</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,25 +2120,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>191</v>
+      </c>
+      <c r="D15" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>212</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>141515</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>191</v>
-      </c>
-      <c r="I15" s="7">
-        <v>127548</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2158,7 +2167,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2176,7 +2185,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2191,7 +2200,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2206,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,34 +2224,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>277</v>
+      </c>
+      <c r="D17" s="7">
+        <v>188057</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="7">
         <v>300</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>199648</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="7">
-        <v>277</v>
-      </c>
-      <c r="I17" s="7">
-        <v>188057</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>577</v>
@@ -2251,13 +2260,13 @@
         <v>387706</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,25 +2275,25 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5307</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>6401</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="7">
-        <v>8</v>
-      </c>
-      <c r="I18" s="7">
-        <v>5307</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>94</v>
@@ -2317,25 +2326,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>285</v>
+      </c>
+      <c r="D19" s="7">
+        <v>193364</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>310</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>206049</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>285</v>
-      </c>
-      <c r="I19" s="7">
-        <v>193364</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2421,10 +2430,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>951</v>
+        <v>915</v>
       </c>
       <c r="D21" s="7">
-        <v>632629</v>
+        <v>613750</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>103</v>
@@ -2436,10 +2445,10 @@
         <v>105</v>
       </c>
       <c r="H21" s="7">
-        <v>915</v>
+        <v>951</v>
       </c>
       <c r="I21" s="7">
-        <v>613750</v>
+        <v>632629</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>106</v>
@@ -2472,10 +2481,10 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>90071</v>
+        <v>65827</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>112</v>
@@ -2487,10 +2496,10 @@
         <v>114</v>
       </c>
       <c r="H22" s="7">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="I22" s="7">
-        <v>65827</v>
+        <v>90071</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>115</v>
@@ -2523,25 +2532,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1016</v>
+      </c>
+      <c r="D23" s="7">
+        <v>679577</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1086</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>722700</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1016</v>
-      </c>
-      <c r="I23" s="7">
-        <v>679577</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2590,7 +2599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0370B7-D19A-47F3-BD54-3A4AD9BCB134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF4F5B3-978E-4736-A978-3B047A647A7E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2762,7 +2771,7 @@
         <v>125</v>
       </c>
       <c r="D5" s="7">
-        <v>87574</v>
+        <v>82923</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>126</v>
@@ -2777,7 +2786,7 @@
         <v>125</v>
       </c>
       <c r="I5" s="7">
-        <v>82923</v>
+        <v>87574</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>129</v>
@@ -2810,10 +2819,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D6" s="7">
-        <v>55391</v>
+        <v>62896</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>135</v>
@@ -2825,10 +2834,10 @@
         <v>137</v>
       </c>
       <c r="H6" s="7">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="I6" s="7">
-        <v>62896</v>
+        <v>55391</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>138</v>
@@ -2861,25 +2870,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>218</v>
+      </c>
+      <c r="D7" s="7">
+        <v>145819</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>203</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>142965</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>218</v>
-      </c>
-      <c r="I7" s="7">
-        <v>145819</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2926,7 +2935,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2941,7 +2950,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2965,10 +2974,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>266142</v>
+        <v>228551</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>145</v>
@@ -2980,19 +2989,19 @@
         <v>147</v>
       </c>
       <c r="H9" s="7">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="I9" s="7">
-        <v>228551</v>
+        <v>266142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>148</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M9" s="7">
         <v>698</v>
@@ -3001,13 +3010,13 @@
         <v>494693</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,10 +3025,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>2849</v>
+        <v>7699</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>153</v>
@@ -3031,19 +3040,19 @@
         <v>155</v>
       </c>
       <c r="H10" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>7699</v>
+        <v>2849</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>156</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3052,13 +3061,13 @@
         <v>10548</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,25 +3076,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>340</v>
+      </c>
+      <c r="D11" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>374</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>268991</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>340</v>
-      </c>
-      <c r="I11" s="7">
-        <v>236250</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3132,37 +3141,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,34 +3180,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>219</v>
+      </c>
+      <c r="D13" s="7">
+        <v>154251</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="7">
         <v>224</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>155601</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="7">
-        <v>219</v>
-      </c>
-      <c r="I13" s="7">
-        <v>154251</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>443</v>
@@ -3207,13 +3216,13 @@
         <v>309852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,31 +3234,31 @@
         <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>2970</v>
+        <v>2792</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
+        <v>173</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>2792</v>
+        <v>2970</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -3258,13 +3267,13 @@
         <v>5762</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,25 +3282,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>228</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>158571</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>223</v>
-      </c>
-      <c r="I15" s="7">
-        <v>157043</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3320,7 +3329,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3338,7 +3347,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3353,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3368,7 +3377,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,34 +3386,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>237</v>
+      </c>
+      <c r="D17" s="7">
+        <v>167156</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="7">
         <v>259</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>175535</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H17" s="7">
-        <v>237</v>
-      </c>
-      <c r="I17" s="7">
-        <v>167156</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
         <v>496</v>
@@ -3413,13 +3422,13 @@
         <v>342691</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,31 +3440,31 @@
         <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>4420</v>
+        <v>4181</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>4181</v>
+        <v>4420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3464,13 +3473,13 @@
         <v>8601</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,25 +3488,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>243</v>
+      </c>
+      <c r="D19" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>265</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>179955</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>243</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171337</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -3583,34 +3592,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>909</v>
+      </c>
+      <c r="D21" s="7">
+        <v>632881</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="7">
         <v>978</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>684852</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" s="7">
-        <v>909</v>
-      </c>
-      <c r="I21" s="7">
-        <v>632881</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M21" s="7">
         <v>1887</v>
@@ -3619,13 +3628,13 @@
         <v>1317733</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,34 +3643,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>115</v>
+      </c>
+      <c r="D22" s="7">
+        <v>77569</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="7">
         <v>92</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>65630</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H22" s="7">
-        <v>115</v>
-      </c>
-      <c r="I22" s="7">
-        <v>77569</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -3670,13 +3679,13 @@
         <v>143198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,25 +3694,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1024</v>
+      </c>
+      <c r="D23" s="7">
+        <v>710450</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1070</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>750482</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I23" s="7">
-        <v>710450</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -3752,7 +3761,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591F14B2-F113-4780-9DC6-6D7CC0E78803}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58650C2C-B7C8-438A-A1CC-F88DE3BD2E18}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3769,7 +3778,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3882,7 +3891,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3897,7 +3906,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3921,34 +3930,34 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
+        <v>119</v>
+      </c>
+      <c r="D5" s="7">
+        <v>73553</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="7">
         <v>118</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>77541</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="7">
-        <v>119</v>
-      </c>
-      <c r="I5" s="7">
-        <v>73553</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M5" s="7">
         <v>237</v>
@@ -3957,13 +3966,13 @@
         <v>151094</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,34 +3981,34 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>92</v>
+      </c>
+      <c r="D6" s="7">
+        <v>58101</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H6" s="7">
         <v>69</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>46623</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="7">
-        <v>92</v>
-      </c>
-      <c r="I6" s="7">
-        <v>58101</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M6" s="7">
         <v>161</v>
@@ -4008,13 +4017,13 @@
         <v>104724</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,25 +4032,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>211</v>
+      </c>
+      <c r="D7" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>187</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>124164</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>211</v>
-      </c>
-      <c r="I7" s="7">
-        <v>131654</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4088,7 +4097,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4103,7 +4112,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>236</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4127,34 +4136,34 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>325</v>
+      </c>
+      <c r="D9" s="7">
+        <v>205829</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" s="7">
         <v>368</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>249913</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H9" s="7">
-        <v>325</v>
-      </c>
-      <c r="I9" s="7">
-        <v>205829</v>
-      </c>
       <c r="J9" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>693</v>
@@ -4163,13 +4172,13 @@
         <v>455742</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,34 +4187,34 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
+        <v>4688</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
         <v>8148</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4688</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -4214,13 +4223,13 @@
         <v>12836</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,25 +4238,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>332</v>
+      </c>
+      <c r="D11" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>380</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>258061</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>332</v>
-      </c>
-      <c r="I11" s="7">
-        <v>210517</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -4294,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4309,7 +4318,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4324,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,34 +4342,34 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
+        <v>264</v>
+      </c>
+      <c r="D13" s="7">
+        <v>183221</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H13" s="7">
         <v>260</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>186207</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="J13" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="I13" s="7">
-        <v>183221</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>524</v>
@@ -4369,13 +4378,13 @@
         <v>369429</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,34 +4393,34 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
+        <v>5678</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H14" s="7">
         <v>3</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>2365</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H14" s="7">
-        <v>8</v>
-      </c>
-      <c r="I14" s="7">
-        <v>5678</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -4420,13 +4429,13 @@
         <v>8042</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,25 +4444,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>272</v>
+      </c>
+      <c r="D15" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>263</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>188572</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>272</v>
-      </c>
-      <c r="I15" s="7">
-        <v>188899</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -4482,7 +4491,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4500,7 +4509,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4515,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4530,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,34 +4548,34 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>240</v>
+      </c>
+      <c r="D17" s="7">
+        <v>170129</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H17" s="7">
         <v>225</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>166554</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="7">
-        <v>240</v>
-      </c>
-      <c r="I17" s="7">
-        <v>170129</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="M17" s="7">
         <v>465</v>
@@ -4575,13 +4584,13 @@
         <v>336681</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,34 +4599,34 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3172</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>7494</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3172</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -4626,13 +4635,13 @@
         <v>10667</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,25 +4650,25 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
+        <v>246</v>
+      </c>
+      <c r="D19" s="7">
+        <v>173301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7">
         <v>235</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>174048</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="7">
-        <v>246</v>
-      </c>
-      <c r="I19" s="7">
-        <v>173301</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4706,7 +4715,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4721,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4745,34 +4754,34 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
+        <v>948</v>
+      </c>
+      <c r="D21" s="7">
+        <v>632732</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21" s="7">
         <v>971</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>680214</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="H21" s="7">
-        <v>948</v>
-      </c>
-      <c r="I21" s="7">
-        <v>632732</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M21" s="7">
         <v>1919</v>
@@ -4781,13 +4790,13 @@
         <v>1312946</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,34 +4805,34 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
+        <v>113</v>
+      </c>
+      <c r="D22" s="7">
+        <v>71639</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H22" s="7">
         <v>94</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>64630</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H22" s="7">
-        <v>113</v>
-      </c>
-      <c r="I22" s="7">
-        <v>71639</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -4832,13 +4841,13 @@
         <v>136269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,25 +4856,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>1061</v>
+      </c>
+      <c r="D23" s="7">
+        <v>704371</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>1065</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>744844</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I23" s="7">
-        <v>704371</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4914,7 +4923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44322A05-467D-4012-BD20-F6153D7EB582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4463DB73-6653-46AB-90E2-2FDE9D12C166}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4931,7 +4940,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,31 +5041,31 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>109</v>
+      </c>
+      <c r="D4" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="7">
         <v>116</v>
       </c>
-      <c r="D4" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="7">
-        <v>109</v>
-      </c>
       <c r="I4" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>307</v>
+        <v>63</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -5065,13 +5074,13 @@
         <v>225</v>
       </c>
       <c r="N4" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -5095,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5110,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5125,7 +5134,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,7 +5155,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5161,7 +5170,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5176,7 +5185,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,25 +5194,25 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
+        <v>109</v>
+      </c>
+      <c r="D7" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="7">
         <v>116</v>
       </c>
-      <c r="D7" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>109</v>
-      </c>
       <c r="I7" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -5218,7 +5227,7 @@
         <v>225</v>
       </c>
       <c r="N7" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -5238,31 +5247,31 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>258</v>
+      </c>
+      <c r="D8" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="7">
         <v>276</v>
       </c>
-      <c r="D8" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="7">
-        <v>258</v>
-      </c>
       <c r="I8" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -5271,13 +5280,13 @@
         <v>534</v>
       </c>
       <c r="N8" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>147</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -5301,7 +5310,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5316,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5331,7 +5340,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,7 +5361,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5367,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5382,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,25 +5400,25 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
+        <v>258</v>
+      </c>
+      <c r="D11" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="7">
         <v>276</v>
       </c>
-      <c r="D11" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="7">
-        <v>258</v>
-      </c>
       <c r="I11" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5424,7 +5433,7 @@
         <v>534</v>
       </c>
       <c r="N11" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5444,31 +5453,31 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>234</v>
-      </c>
       <c r="I12" s="7">
-        <v>176945</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -5477,13 +5486,13 @@
         <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>379424</v>
+        <v>386378</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -5507,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5522,7 +5531,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5537,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,7 +5567,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5573,7 +5582,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5588,7 +5597,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,25 +5606,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>234</v>
+      </c>
+      <c r="D15" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="7">
         <v>243</v>
       </c>
-      <c r="D15" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="7">
-        <v>234</v>
-      </c>
       <c r="I15" s="7">
-        <v>176945</v>
+        <v>212490</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5630,7 +5639,7 @@
         <v>477</v>
       </c>
       <c r="N15" s="7">
-        <v>379424</v>
+        <v>386378</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5644,7 +5653,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5653,13 +5662,13 @@
         <v>342</v>
       </c>
       <c r="D16" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -5668,13 +5677,13 @@
         <v>342</v>
       </c>
       <c r="I16" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -5683,13 +5692,13 @@
         <v>684</v>
       </c>
       <c r="N16" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -5743,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,7 +5803,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,7 +5815,7 @@
         <v>342</v>
       </c>
       <c r="D19" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5821,7 +5830,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5836,7 +5845,7 @@
         <v>684</v>
       </c>
       <c r="N19" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5856,31 +5865,31 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
+        <v>943</v>
+      </c>
+      <c r="D20" s="7">
+        <v>666155</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="7">
         <v>977</v>
       </c>
-      <c r="D20" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="7">
-        <v>943</v>
-      </c>
       <c r="I20" s="7">
-        <v>653712</v>
+        <v>761972</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>36</v>
@@ -5889,13 +5898,13 @@
         <v>1920</v>
       </c>
       <c r="N20" s="7">
-        <v>1379416</v>
+        <v>1428127</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>36</v>
@@ -5919,7 +5928,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5934,7 +5943,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5949,7 +5958,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,7 +5979,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5985,7 +5994,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6000,7 +6009,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,25 +6018,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>943</v>
+      </c>
+      <c r="D23" s="7">
+        <v>666155</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="7">
         <v>977</v>
       </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="7">
-        <v>943</v>
-      </c>
       <c r="I23" s="7">
-        <v>653712</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -6042,7 +6051,7 @@
         <v>1920</v>
       </c>
       <c r="N23" s="7">
-        <v>1379416</v>
+        <v>1428127</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
